--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459946.428984893</v>
+        <v>2454224.817017007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>5.791117132838356</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>145.0174925318261</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9344506852099</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>137.9593341407853</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.1137484527827</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>10.43941339835945</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2994412657484</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>325.2557485598865</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.72878559814581</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.49576810820431</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.1991041941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465664</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>49.71226836029227</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>111.3867399567395</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>61.83721437613693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.60578461225069</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>142.6955872305729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>77.31354443380484</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.66047983314384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>60.31323908025433</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>217.0914199928473</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>57.68750238080737</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.74982239484414</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.26221019674202</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>38.26221019674291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.7576914549245</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>2001.758776122685</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1632.796259182273</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1274.530560575523</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>888.7423079772784</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>477.7564031876709</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.79259508585773</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>59.79259508585773</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2495.638085860002</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2164.575198516432</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2164.575198516432</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1791.109440255352</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>2388.358616186807</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1034.617283051399</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>665.6547661109871</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2557.796228249752</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2557.796228249752</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2304.034442887843</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>1972.971555544273</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.217123115521</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>1421.217123115521</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.5841221878893</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>717.5841221878893</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>378.1446555862785</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>764.7444956504003</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,49 +5026,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,34 +5138,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6097761177731</v>
+        <v>759.6313103540842</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6097761177731</v>
+        <v>590.6951274261774</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177731</v>
+        <v>440.5784880138416</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>292.6653944314485</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>145.7754469335381</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>145.7754469335381</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>145.7754469335381</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5205,13 +5205,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5232,19 +5232,19 @@
         <v>1644.746393431758</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V13" t="n">
-        <v>1355.643526557401</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.643526557401</v>
+        <v>1390.061905225871</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.653975659384</v>
+        <v>1162.072354327854</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.8613965158539</v>
+        <v>941.279775184324</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
-        <v>786.6724891157203</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364129</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2216.257005193955</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420601</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,73 +5333,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.3941514382108</v>
+        <v>746.4187980346559</v>
       </c>
       <c r="C16" t="n">
-        <v>557.3941514382108</v>
+        <v>746.4187980346559</v>
       </c>
       <c r="D16" t="n">
-        <v>557.3941514382108</v>
+        <v>746.4187980346559</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>598.5057044522628</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>451.6157569543524</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>1156.056813762913</v>
       </c>
       <c r="X16" t="n">
-        <v>557.3941514382108</v>
+        <v>928.0672628648956</v>
       </c>
       <c r="Y16" t="n">
-        <v>557.3941514382108</v>
+        <v>928.0672628648956</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5609,13 +5609,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1937.549744274147</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1745.863860100973</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1745.863860100973</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1745.863860100973</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.179371895086</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1201.762201858126</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>973.7726509601081</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>973.7726509601081</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5828,16 +5828,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1667.240599230347</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6326,31 +6326,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.1255161526733</v>
+        <v>472.0994283734972</v>
       </c>
       <c r="C28" t="n">
-        <v>613.1893332247664</v>
+        <v>472.0994283734972</v>
       </c>
       <c r="D28" t="n">
-        <v>463.0726938124307</v>
+        <v>472.0994283734972</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>324.1863347911041</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.556111024461</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.556111024461</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X28" t="n">
-        <v>1184.566560126443</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.773980982913</v>
+        <v>653.7478932037369</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6478,13 +6478,13 @@
         <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6545,22 +6545,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3384.235206686049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C31" t="n">
-        <v>3215.299023758142</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D31" t="n">
-        <v>3065.182384345806</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4558.767459800683</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4304.082971594797</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>4014.665801557836</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>3786.676250659818</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y31" t="n">
-        <v>3565.883671516288</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3014367967918</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866382</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3510.188831349827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3341.25264842192</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3191.136009009584</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3191.136009009584</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3191.136009009584</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3023.433172384303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493357</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3730.981410493357</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3730.981410493357</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3510.188831349827</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>332.6065287858771</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>666.4259024757234</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1530.944718129078</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2064.476622801002</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>3044.228895027648</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
         <v>794.200663232024</v>
@@ -7028,28 +7028,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>747.3928343215987</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>578.4566513936918</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>428.340011981356</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>280.4269183989629</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>280.4269183989629</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.240599230347</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1377.823429193386</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1149.833878295369</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.0412991518384</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,22 +7177,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>932.5990189467745</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600129</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7229,64 +7229,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>747.3928343215996</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>578.4566513936927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>428.340011981357</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>280.4269183989638</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4269183989638</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1667.240599230347</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1377.823429193387</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1149.833878295369</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.0412991518393</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7599,7 +7599,7 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
         <v>1270.093287563029</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,43 +7633,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807097</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783413</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413808</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>391.8664332433634</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0738540998333</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>170.1140909277314</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>32.869794698036</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>80.35488666587446</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225792226</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>67.53663776704411</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704246</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>48.65289230147198</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>198.7154374299952</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.63287598783728</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.64015204954582</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.63906830228872</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>163.8724410129002</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>70.32636805779666</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>83.01406815846428</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>19.03887597603325</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>72.77348281342533</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>85.10780894267691</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>69.12041821276557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>160.8971509712874</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0051925194767</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>127.7635980622862</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>127.7635980622853</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814990.2678413785</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814990.2678413785</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="E2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="F2" t="n">
         <v>595622.6803304745</v>
       </c>
-      <c r="F2" t="n">
-        <v>595622.6803304746</v>
-      </c>
       <c r="G2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="H2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304743</v>
       </c>
       <c r="I2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304745</v>
       </c>
       <c r="J2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304751</v>
       </c>
       <c r="K2" t="n">
         <v>595622.6803304746</v>
@@ -26346,16 +26346,16 @@
         <v>595622.6803304747</v>
       </c>
       <c r="M2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.680330475</v>
       </c>
       <c r="N2" t="n">
-        <v>595622.6803304744</v>
+        <v>595622.680330475</v>
       </c>
       <c r="O2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304742</v>
       </c>
       <c r="P2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304751</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,19 +26423,19 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
@@ -26447,19 +26447,19 @@
         <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709189</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26490,7 +26490,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249252.2262721712</v>
+        <v>-249252.226272171</v>
       </c>
       <c r="C6" t="n">
+        <v>340715.6529423734</v>
+      </c>
+      <c r="D6" t="n">
         <v>340715.6529423737</v>
       </c>
-      <c r="D6" t="n">
-        <v>340715.6529423735</v>
-      </c>
       <c r="E6" t="n">
-        <v>-249757.8599137377</v>
+        <v>-250429.8148159956</v>
       </c>
       <c r="F6" t="n">
-        <v>477619.5540796694</v>
+        <v>476947.5991774111</v>
       </c>
       <c r="G6" t="n">
-        <v>477619.5540796691</v>
+        <v>476947.5991774117</v>
       </c>
       <c r="H6" t="n">
-        <v>477619.5540796693</v>
+        <v>476947.5991774109</v>
       </c>
       <c r="I6" t="n">
-        <v>477619.5540796691</v>
+        <v>476947.5991774111</v>
       </c>
       <c r="J6" t="n">
-        <v>301196.3348870763</v>
+        <v>300524.3799848186</v>
       </c>
       <c r="K6" t="n">
-        <v>477619.5540796692</v>
+        <v>476947.5991774111</v>
       </c>
       <c r="L6" t="n">
-        <v>477619.5540796693</v>
+        <v>476947.5991774113</v>
       </c>
       <c r="M6" t="n">
-        <v>347977.2392407241</v>
+        <v>347305.2843384665</v>
       </c>
       <c r="N6" t="n">
-        <v>477619.5540796688</v>
+        <v>476947.5991774115</v>
       </c>
       <c r="O6" t="n">
-        <v>477619.5540796695</v>
+        <v>476947.5991774108</v>
       </c>
       <c r="P6" t="n">
-        <v>477619.5540796691</v>
+        <v>476947.5991774117</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.033036376212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,16 +26992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.1401991120229</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>106.2066749764632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>83.12091415361536</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>169.748590935473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>36.45637866818623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>128.0571403890125</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>136.2257785817984</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.97345050525917</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752656</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>68.70517704842337</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>168.53933734988</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33517,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>507.3053774831317</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>571.7909105282629</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>479.1168728852463</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502542</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>575.5896386552631</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.323638735755</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597769</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>239.4398932701845</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>654.3055518223274</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37563,7 +37563,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454224.817017007</v>
+        <v>2457630.308141456</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>214.5701513550097</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.791117132838356</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>123.4514883688809</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>132.6868673113703</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>137.9593341407853</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>126.5175494131025</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.43941339835945</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>300.2994412657484</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.72878559814581</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873215</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.71226836029227</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888065</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.9696990078334</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>111.3867399567395</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873216</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>17.25588147840184</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.607764387322</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7436667624672</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>60.31323908025433</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,13 +2772,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.68750238080737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.1721819464391</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>163.2704070622397</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174146</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>52.23490948285993</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>55.37624113258617</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>20.45352712646407</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2001.758776122685</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C2" t="n">
-        <v>1632.796259182273</v>
+        <v>1425.720364436189</v>
       </c>
       <c r="D2" t="n">
-        <v>1274.530560575523</v>
+        <v>1067.454665829438</v>
       </c>
       <c r="E2" t="n">
-        <v>888.7423079772784</v>
+        <v>681.6664132311939</v>
       </c>
       <c r="F2" t="n">
-        <v>477.7564031876709</v>
+        <v>270.6805084415864</v>
       </c>
       <c r="G2" t="n">
-        <v>59.79259508585773</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>59.79259508585773</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.358616186807</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1138.210253911481</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>752.4220013132363</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>341.4360965236287</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2557.796228249752</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2557.796228249752</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2304.034442887843</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1972.971555544273</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1620.202900274159</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.202900274159</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>717.5841221878893</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>717.5841221878893</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>490.2759348564911</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2759348564911</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1446555862785</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097701</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504003</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001596</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,7 +5159,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.6313103540842</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>590.6951274261774</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>440.5784880138416</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6653944314485</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>145.7754469335381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>145.7754469335381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>145.7754469335381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5205,13 +5205,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1644.746393431758</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.061905225871</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1390.061905225871</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.072354327854</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.279775184324</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193955</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420601</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750057</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107235</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008795</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>746.4187980346559</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="C16" t="n">
-        <v>746.4187980346559</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="D16" t="n">
-        <v>746.4187980346559</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>598.5057044522628</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>451.6157569543524</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5442,13 +5442,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799874</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.473983799874</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>1156.056813762913</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X16" t="n">
-        <v>928.0672628648956</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y16" t="n">
-        <v>928.0672628648956</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749767</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551645</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001597</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.363334276589</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862921</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551637</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001602</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>888.4135721382804</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622687</v>
+        <v>1339.447785386689</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2317.998088216518</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5828,16 +5828,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6059,31 +6059,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390121</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6159,40 +6159,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598109</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518523</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952182</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104697</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862225</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689051</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814695</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608808</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718471</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>652.9926331451126</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>432.2000540015824</v>
       </c>
     </row>
     <row r="26">
@@ -6205,25 +6205,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6232,40 +6232,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6329,10 +6329,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>472.0994283734972</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>472.0994283734972</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>472.0994283734972</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>324.1863347911041</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>874.540472347267</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>874.540472347267</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>653.7478932037369</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.4266860607763</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,43 +6709,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,46 +6943,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7013,37 +7013,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1791.423863011532</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1502.320996137176</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1247.636507931289</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>958.2193378943285</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>730.2297869963112</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,34 +7259,34 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>391.866433243363</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7438,22 +7438,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y41" t="n">
         <v>2760.816196754296</v>
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>878.568462566912</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>709.6322796390051</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>1060.216927397152</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1935.683337694134</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1646.580470819778</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1391.895982613891</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1102.47881257693</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>874.4892616789128</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>653.6966825353827</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,13 +8297,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476822</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>32.869794698036</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>429.3027489862386</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400274</v>
       </c>
       <c r="P17" t="n">
-        <v>80.35488666587446</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>103.7862464855161</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>248.8400772687159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>46.64015204954582</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>73.85778156328831</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>78.64577401037896</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>54.63906830228872</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>38.96598862656998</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>85.10780894267691</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>160.8971509712874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>17.26178070013012</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>56.27854221392951</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>93.23923188562618</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>199.0954221497051</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413781</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814990.2678413783</v>
+        <v>814990.2678413782</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814990.2678413782</v>
+        <v>814990.2678413783</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>595622.6803304749</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304745</v>
+        <v>595622.6803304747</v>
       </c>
       <c r="G2" t="n">
+        <v>595622.680330475</v>
+      </c>
+      <c r="H2" t="n">
         <v>595622.6803304749</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="J2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="K2" t="n">
+        <v>595622.6803304747</v>
+      </c>
+      <c r="L2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="M2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="N2" t="n">
         <v>595622.6803304743</v>
       </c>
-      <c r="I2" t="n">
-        <v>595622.6803304745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>595622.6803304751</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595622.6803304746</v>
-      </c>
-      <c r="L2" t="n">
-        <v>595622.6803304747</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="P2" t="n">
         <v>595622.680330475</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595622.680330475</v>
-      </c>
-      <c r="O2" t="n">
-        <v>595622.6803304742</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595622.6803304751</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.413993407</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709185</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>21619.60799709181</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709177</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709181</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26484,16 +26484,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>340715.6529423734</v>
       </c>
       <c r="D6" t="n">
-        <v>340715.6529423737</v>
+        <v>340715.6529423734</v>
       </c>
       <c r="E6" t="n">
-        <v>-250429.8148159956</v>
+        <v>-249825.0554039631</v>
       </c>
       <c r="F6" t="n">
-        <v>476947.5991774111</v>
+        <v>477552.3585894435</v>
       </c>
       <c r="G6" t="n">
-        <v>476947.5991774117</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="H6" t="n">
-        <v>476947.5991774109</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="I6" t="n">
-        <v>476947.5991774111</v>
+        <v>477552.3585894434</v>
       </c>
       <c r="J6" t="n">
-        <v>300524.3799848186</v>
+        <v>301129.1393968507</v>
       </c>
       <c r="K6" t="n">
-        <v>476947.5991774111</v>
+        <v>477552.3585894435</v>
       </c>
       <c r="L6" t="n">
-        <v>476947.5991774113</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="M6" t="n">
-        <v>347305.2843384665</v>
+        <v>347910.0437504988</v>
       </c>
       <c r="N6" t="n">
-        <v>476947.5991774115</v>
+        <v>477552.3585894429</v>
       </c>
       <c r="O6" t="n">
-        <v>476947.5991774108</v>
+        <v>477552.3585894436</v>
       </c>
       <c r="P6" t="n">
-        <v>476947.5991774117</v>
+        <v>477552.3585894437</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26804,13 +26804,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="I4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.033036376212</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545549</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>199.2140186657853</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>146.1401991120229</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>43.79533272974697</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>1.885271837007195</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>281.0973027094246</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.45637866818623</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>53.31443076883477</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>136.2257785817984</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525917</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>190.7623767421583</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>68.70517704842337</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.204770029246527e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-5.899264851786594e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-6.890341346886742e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.575699570821598e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343413</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359016</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>571.7909105282629</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248957</v>
+        <v>981.6045843991501</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P17" t="n">
-        <v>479.1168728852463</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>440.9775330409166</v>
       </c>
       <c r="L20" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200618</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675332</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,10 +37320,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>647.6020634880878</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
